--- a/IndustrialEnergy/Files/ReportFull.xlsx
+++ b/IndustrialEnergy/Files/ReportFull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrancescoCalise\Desktop\Thesis\IndustrialEnergy\IndustrialEnergy\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88FC1A-4732-4FD8-9802-F1490B4BAD19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FCB72D-1F08-4E96-BAE8-FE05462DB03D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90828211-2F38-4CBF-8F06-A8B60BD8509E}"/>
   </bookViews>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CA876D-EA8F-40FB-B286-CFCE21A11B13}">
   <dimension ref="A1:CQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/IndustrialEnergy/Files/ReportFull.xlsx
+++ b/IndustrialEnergy/Files/ReportFull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrancescoCalise\Desktop\Thesis\IndustrialEnergy\IndustrialEnergy\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FCB72D-1F08-4E96-BAE8-FE05462DB03D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516C84D9-2495-423B-BEFE-EBA267B48EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{90828211-2F38-4CBF-8F06-A8B60BD8509E}"/>
   </bookViews>
@@ -1017,106 +1017,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CA876D-EA8F-40FB-B286-CFCE21A11B13}">
   <dimension ref="A1:CQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="26" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="25" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="43.2" x14ac:dyDescent="0.3">
